--- a/Filip/Module1_notices.xlsx
+++ b/Filip/Module1_notices.xlsx
@@ -15,19 +15,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>matrix factorization</t>
+  </si>
+  <si>
+    <t>https://courses.edx.org/courses/course-v1:Microsoft+DAT203x+3T2015/courseware/5bbcfcf04e6d49bda1eecb1e1c0bfc24/fcfa138cced94608b8e07a23a558d5e9/</t>
+  </si>
+  <si>
+    <t>You have derived a matrix-factorization based recommendation method for movies with the latent factors "superheroes," "comedy," "horror," "romance" and "classic."</t>
+  </si>
+  <si>
+    <t>A new movie is a romantic comedy about superheroes. It has latent values [1/3, 1/3, 0, 1/3, 0], meaning it is divided equally between the latent factors "superheroes," "comedy," and "romance."</t>
+  </si>
+  <si>
+    <t>Gemma's latent representation for the "superheroes," "comedy," "horror," "romance" and "classic" movie types is [1, 4, 2, 1, 5] respectively.</t>
+  </si>
+  <si>
+    <t>What is Gemma's predicted rating for the new movie?</t>
+  </si>
+  <si>
+    <t>latent factors</t>
+  </si>
+  <si>
+    <t>superheroes</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>horror</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>New Movie</t>
+  </si>
+  <si>
+    <t>Gemmas latent representation</t>
+  </si>
+  <si>
+    <t>Gemmas rating of new movie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -47,6 +90,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,9 +139,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -113,15 +169,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -129,7 +186,150 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">1/3</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">MMULT(B11:F11,TRANSPOSE( B12:F12))</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
